--- a/Curso_Java/Programacion_Orientada_a_Objetos/Ejercicio_9_proyecto/Aeropuerto.xlsx
+++ b/Curso_Java/Programacion_Orientada_a_Objetos/Ejercicio_9_proyecto/Aeropuerto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario_Ollin\Documents\CV_Ollin\Generation_Curso_Fullstack\Generation\Bootcamp_Generation\Repositorio_Personal\Material_estudio\Curso_Java\Programacion_Orientada_a_Objetos\Ejercicio_9_proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA2A3F-CD9F-4159-80A1-39AA6E8BAEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711501BE-97B3-476A-981A-540A05FB25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8064" yWindow="600" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
